--- a/JupyterNotebooks/AveragedIntensites/alpha4F-HW15.xlsx
+++ b/JupyterNotebooks/AveragedIntensites/alpha4F-HW15.xlsx
@@ -7,14 +7,14 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="alpha4F-HW15.xpc" sheetId="1" r:id="rId1"/>
+    <sheet name="alpha4F" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="25">
   <si>
     <t>HKL</t>
   </si>
@@ -446,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M15"/>
+  <dimension ref="A1:M16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -949,7 +949,7 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>0.9808353665815222</v>
+        <v>0.980835366581522</v>
       </c>
       <c r="D13">
         <v>0.9932526162782277</v>
@@ -958,7 +958,7 @@
         <v>0.9954731919829907</v>
       </c>
       <c r="F13">
-        <v>0.9808353665815222</v>
+        <v>0.980835366581522</v>
       </c>
       <c r="G13">
         <v>0.9879817567710224</v>
@@ -976,10 +976,10 @@
         <v>0.9943629041306092</v>
       </c>
       <c r="L13">
-        <v>0.9875991353560658</v>
+        <v>0.9875991353560656</v>
       </c>
       <c r="M13">
-        <v>0.9913030342092281</v>
+        <v>0.9913030342092278</v>
       </c>
     </row>
     <row r="14" spans="1:13">
@@ -1031,7 +1031,7 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>0.9675179852060343</v>
+        <v>0.9675179852060344</v>
       </c>
       <c r="D15">
         <v>1.15609030302424</v>
@@ -1040,16 +1040,16 @@
         <v>0.9443480477397658</v>
       </c>
       <c r="F15">
-        <v>0.9675179852060343</v>
+        <v>0.9675179852060344</v>
       </c>
       <c r="G15">
         <v>1.094496109764759</v>
       </c>
       <c r="H15">
-        <v>0.8285166405324974</v>
+        <v>0.8285166405324971</v>
       </c>
       <c r="I15">
-        <v>0.9431054365710804</v>
+        <v>0.9431054365710803</v>
       </c>
       <c r="J15">
         <v>1.15609030302424</v>
@@ -1058,10 +1058,51 @@
         <v>1.050219175382003</v>
       </c>
       <c r="L15">
-        <v>1.008868580294018</v>
+        <v>1.008868580294019</v>
       </c>
       <c r="M15">
-        <v>0.9890124204730628</v>
+        <v>0.9890124204730627</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>13</v>
+      </c>
+      <c r="C16">
+        <v>1.283205560933205</v>
+      </c>
+      <c r="D16">
+        <v>0.5533404005767953</v>
+      </c>
+      <c r="E16">
+        <v>1.011479690632174</v>
+      </c>
+      <c r="F16">
+        <v>1.283205560933205</v>
+      </c>
+      <c r="G16">
+        <v>0.7658860871064203</v>
+      </c>
+      <c r="H16">
+        <v>1.176224941566672</v>
+      </c>
+      <c r="I16">
+        <v>1.079696260835131</v>
+      </c>
+      <c r="J16">
+        <v>0.5533404005767953</v>
+      </c>
+      <c r="K16">
+        <v>0.7824100456044845</v>
+      </c>
+      <c r="L16">
+        <v>1.032807803268845</v>
+      </c>
+      <c r="M16">
+        <v>0.9783054902750662</v>
       </c>
     </row>
   </sheetData>

--- a/JupyterNotebooks/AveragedIntensites/alpha4F-HW15.xlsx
+++ b/JupyterNotebooks/AveragedIntensites/alpha4F-HW15.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>HKL</t>
   </si>
@@ -56,6 +56,9 @@
   </si>
   <si>
     <t>HexGrid-60degTilt5degRes</t>
+  </si>
+  <si>
+    <t>Gaussian-Quadrature</t>
   </si>
   <si>
     <t>[1, 1, 0]</t>
@@ -498,37 +501,37 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="M2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -1069,7 +1072,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C16">
         <v>1.283205560933205</v>

--- a/JupyterNotebooks/AveragedIntensites/alpha4F-HW15.xlsx
+++ b/JupyterNotebooks/AveragedIntensites/alpha4F-HW15.xlsx
@@ -952,7 +952,7 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>0.980835366581522</v>
+        <v>0.9808353665815222</v>
       </c>
       <c r="D13">
         <v>0.9932526162782277</v>
@@ -961,7 +961,7 @@
         <v>0.9954731919829907</v>
       </c>
       <c r="F13">
-        <v>0.980835366581522</v>
+        <v>0.9808353665815222</v>
       </c>
       <c r="G13">
         <v>0.9879817567710224</v>
@@ -979,10 +979,10 @@
         <v>0.9943629041306092</v>
       </c>
       <c r="L13">
-        <v>0.9875991353560656</v>
+        <v>0.9875991353560658</v>
       </c>
       <c r="M13">
-        <v>0.9913030342092278</v>
+        <v>0.9913030342092281</v>
       </c>
     </row>
     <row r="14" spans="1:13">
@@ -1034,7 +1034,7 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>0.9675179852060344</v>
+        <v>0.9675179852060343</v>
       </c>
       <c r="D15">
         <v>1.15609030302424</v>
@@ -1043,16 +1043,16 @@
         <v>0.9443480477397658</v>
       </c>
       <c r="F15">
-        <v>0.9675179852060344</v>
+        <v>0.9675179852060343</v>
       </c>
       <c r="G15">
         <v>1.094496109764759</v>
       </c>
       <c r="H15">
-        <v>0.8285166405324971</v>
+        <v>0.8285166405324974</v>
       </c>
       <c r="I15">
-        <v>0.9431054365710803</v>
+        <v>0.9431054365710804</v>
       </c>
       <c r="J15">
         <v>1.15609030302424</v>
@@ -1061,10 +1061,10 @@
         <v>1.050219175382003</v>
       </c>
       <c r="L15">
-        <v>1.008868580294019</v>
+        <v>1.008868580294018</v>
       </c>
       <c r="M15">
-        <v>0.9890124204730627</v>
+        <v>0.9890124204730628</v>
       </c>
     </row>
     <row r="16" spans="1:13">

--- a/JupyterNotebooks/AveragedIntensites/alpha4F-HW15.xlsx
+++ b/JupyterNotebooks/AveragedIntensites/alpha4F-HW15.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>HKL</t>
   </si>
@@ -40,6 +40,18 @@
     <t>Ring Perpendicular to TD</t>
   </si>
   <si>
+    <t>Gaussian-Quadrature</t>
+  </si>
+  <si>
+    <t>Spiral-90deg-10rot-5space</t>
+  </si>
+  <si>
+    <t>Spiral-90deg-15rot-5space</t>
+  </si>
+  <si>
+    <t>Spiral-90deg-10rot-3space</t>
+  </si>
+  <si>
     <t>NoRotation-tilt60deg</t>
   </si>
   <si>
@@ -56,9 +68,6 @@
   </si>
   <si>
     <t>HexGrid-60degTilt5degRes</t>
-  </si>
-  <si>
-    <t>Gaussian-Quadrature</t>
   </si>
   <si>
     <t>[1, 1, 0]</t>
@@ -449,7 +458,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M16"/>
+  <dimension ref="A1:M19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -501,37 +510,37 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="F2" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="G2" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="H2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="I2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="J2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="K2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="L2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="M2" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -829,37 +838,37 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>0.6059320000000015</v>
+        <v>1.283205560933205</v>
       </c>
       <c r="D10">
-        <v>0.7997120000000032</v>
+        <v>0.5533404005767953</v>
       </c>
       <c r="E10">
-        <v>1.338772</v>
+        <v>1.011479690632174</v>
       </c>
       <c r="F10">
-        <v>0.6059320000000015</v>
+        <v>1.283205560933205</v>
       </c>
       <c r="G10">
-        <v>0.544116</v>
+        <v>0.7658860871064203</v>
       </c>
       <c r="H10">
-        <v>2.419648</v>
+        <v>1.176224941566672</v>
       </c>
       <c r="I10">
-        <v>1.168527999999998</v>
+        <v>1.079696260835131</v>
       </c>
       <c r="J10">
-        <v>0.7997120000000032</v>
+        <v>0.5533404005767953</v>
       </c>
       <c r="K10">
-        <v>1.069242000000002</v>
+        <v>0.7824100456044845</v>
       </c>
       <c r="L10">
-        <v>0.8375870000000015</v>
+        <v>1.032807803268845</v>
       </c>
       <c r="M10">
-        <v>1.146118</v>
+        <v>0.9783054902750662</v>
       </c>
     </row>
     <row r="11" spans="1:13">
@@ -870,37 +879,37 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>0.35</v>
+        <v>0.7624447654678239</v>
       </c>
       <c r="D11">
-        <v>0</v>
+        <v>1.23810911409098</v>
       </c>
       <c r="E11">
-        <v>1.7072375</v>
+        <v>1.103482249748861</v>
       </c>
       <c r="F11">
-        <v>0.35</v>
+        <v>0.7624447654678239</v>
       </c>
       <c r="G11">
-        <v>0.12</v>
+        <v>0.8354774746902707</v>
       </c>
       <c r="H11">
-        <v>3.420424999999998</v>
+        <v>1.716613816911243</v>
       </c>
       <c r="I11">
-        <v>1.414437499999998</v>
+        <v>0.9846972419867169</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>1.23810911409098</v>
       </c>
       <c r="K11">
-        <v>0.8536187499999999</v>
+        <v>1.170795681919921</v>
       </c>
       <c r="L11">
-        <v>0.601809375</v>
+        <v>0.9666202236938723</v>
       </c>
       <c r="M11">
-        <v>1.168683333333333</v>
+        <v>1.106804110482649</v>
       </c>
     </row>
     <row r="12" spans="1:13">
@@ -911,37 +920,37 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>0.6298105585664012</v>
+        <v>0.7634497892880356</v>
       </c>
       <c r="D12">
-        <v>0.4086701045760012</v>
+        <v>1.241189958470491</v>
       </c>
       <c r="E12">
-        <v>1.4057189262336</v>
+        <v>1.102179451484345</v>
       </c>
       <c r="F12">
-        <v>0.6298105585664012</v>
+        <v>0.7634497892880356</v>
       </c>
       <c r="G12">
-        <v>0.4847611174912008</v>
+        <v>0.8376267172478166</v>
       </c>
       <c r="H12">
-        <v>2.378300878131199</v>
+        <v>1.710581682049699</v>
       </c>
       <c r="I12">
-        <v>1.231107060121596</v>
+        <v>0.9836533324204633</v>
       </c>
       <c r="J12">
-        <v>0.4086701045760012</v>
+        <v>1.241189958470491</v>
       </c>
       <c r="K12">
-        <v>0.9071945154048005</v>
+        <v>1.171684704977418</v>
       </c>
       <c r="L12">
-        <v>0.7685025369856008</v>
+        <v>0.9675672471327268</v>
       </c>
       <c r="M12">
-        <v>1.08972810752</v>
+        <v>1.106446821826808</v>
       </c>
     </row>
     <row r="13" spans="1:13">
@@ -952,37 +961,37 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>0.9808353665815222</v>
+        <v>0.7624117444593062</v>
       </c>
       <c r="D13">
-        <v>0.9932526162782277</v>
+        <v>1.238552621705216</v>
       </c>
       <c r="E13">
-        <v>0.9954731919829907</v>
+        <v>1.103410334173562</v>
       </c>
       <c r="F13">
-        <v>0.9808353665815222</v>
+        <v>0.7624117444593062</v>
       </c>
       <c r="G13">
-        <v>0.9879817567710224</v>
+        <v>0.8360093886495377</v>
       </c>
       <c r="H13">
-        <v>0.9988752707099485</v>
+        <v>1.715644362247476</v>
       </c>
       <c r="I13">
-        <v>0.9914000029316566</v>
+        <v>0.9841451338796103</v>
       </c>
       <c r="J13">
-        <v>0.9932526162782277</v>
+        <v>1.238552621705216</v>
       </c>
       <c r="K13">
-        <v>0.9943629041306092</v>
+        <v>1.170981477939389</v>
       </c>
       <c r="L13">
-        <v>0.9875991353560658</v>
+        <v>0.9666966111993476</v>
       </c>
       <c r="M13">
-        <v>0.9913030342092281</v>
+        <v>1.106695597519118</v>
       </c>
     </row>
     <row r="14" spans="1:13">
@@ -993,37 +1002,37 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>1.055120349330215</v>
+        <v>0.6059320000000015</v>
       </c>
       <c r="D14">
-        <v>1.062051379275293</v>
+        <v>0.7997120000000032</v>
       </c>
       <c r="E14">
-        <v>0.9434096811110427</v>
+        <v>1.338772</v>
       </c>
       <c r="F14">
-        <v>1.055120349330215</v>
+        <v>0.6059320000000015</v>
       </c>
       <c r="G14">
-        <v>1.012425431463024</v>
+        <v>0.544116</v>
       </c>
       <c r="H14">
-        <v>0.938203255348837</v>
+        <v>2.419648</v>
       </c>
       <c r="I14">
-        <v>0.9687507810392281</v>
+        <v>1.168527999999998</v>
       </c>
       <c r="J14">
-        <v>1.062051379275293</v>
+        <v>0.7997120000000032</v>
       </c>
       <c r="K14">
-        <v>1.002730530193168</v>
+        <v>1.069242000000002</v>
       </c>
       <c r="L14">
-        <v>1.028925439761692</v>
+        <v>0.8375870000000015</v>
       </c>
       <c r="M14">
-        <v>0.9966601462612732</v>
+        <v>1.146118</v>
       </c>
     </row>
     <row r="15" spans="1:13">
@@ -1034,37 +1043,37 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>0.9675179852060343</v>
+        <v>0.35</v>
       </c>
       <c r="D15">
-        <v>1.15609030302424</v>
+        <v>0</v>
       </c>
       <c r="E15">
-        <v>0.9443480477397658</v>
+        <v>1.7072375</v>
       </c>
       <c r="F15">
-        <v>0.9675179852060343</v>
+        <v>0.35</v>
       </c>
       <c r="G15">
-        <v>1.094496109764759</v>
+        <v>0.12</v>
       </c>
       <c r="H15">
-        <v>0.8285166405324974</v>
+        <v>3.420424999999998</v>
       </c>
       <c r="I15">
-        <v>0.9431054365710804</v>
+        <v>1.414437499999998</v>
       </c>
       <c r="J15">
-        <v>1.15609030302424</v>
+        <v>0</v>
       </c>
       <c r="K15">
-        <v>1.050219175382003</v>
+        <v>0.8536187499999999</v>
       </c>
       <c r="L15">
-        <v>1.008868580294018</v>
+        <v>0.601809375</v>
       </c>
       <c r="M15">
-        <v>0.9890124204730628</v>
+        <v>1.168683333333333</v>
       </c>
     </row>
     <row r="16" spans="1:13">
@@ -1075,37 +1084,160 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>1.283205560933205</v>
+        <v>0.6298105585664012</v>
       </c>
       <c r="D16">
-        <v>0.5533404005767953</v>
+        <v>0.4086701045760012</v>
       </c>
       <c r="E16">
-        <v>1.011479690632174</v>
+        <v>1.4057189262336</v>
       </c>
       <c r="F16">
-        <v>1.283205560933205</v>
+        <v>0.6298105585664012</v>
       </c>
       <c r="G16">
-        <v>0.7658860871064203</v>
+        <v>0.4847611174912008</v>
       </c>
       <c r="H16">
-        <v>1.176224941566672</v>
+        <v>2.378300878131199</v>
       </c>
       <c r="I16">
-        <v>1.079696260835131</v>
+        <v>1.231107060121596</v>
       </c>
       <c r="J16">
-        <v>0.5533404005767953</v>
+        <v>0.4086701045760012</v>
       </c>
       <c r="K16">
-        <v>0.7824100456044845</v>
+        <v>0.9071945154048005</v>
       </c>
       <c r="L16">
-        <v>1.032807803268845</v>
+        <v>0.7685025369856008</v>
       </c>
       <c r="M16">
-        <v>0.9783054902750662</v>
+        <v>1.08972810752</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>15</v>
+      </c>
+      <c r="C17">
+        <v>0.980835366581522</v>
+      </c>
+      <c r="D17">
+        <v>0.9932526162782277</v>
+      </c>
+      <c r="E17">
+        <v>0.9954731919829907</v>
+      </c>
+      <c r="F17">
+        <v>0.980835366581522</v>
+      </c>
+      <c r="G17">
+        <v>0.9879817567710224</v>
+      </c>
+      <c r="H17">
+        <v>0.9988752707099485</v>
+      </c>
+      <c r="I17">
+        <v>0.9914000029316566</v>
+      </c>
+      <c r="J17">
+        <v>0.9932526162782277</v>
+      </c>
+      <c r="K17">
+        <v>0.9943629041306092</v>
+      </c>
+      <c r="L17">
+        <v>0.9875991353560656</v>
+      </c>
+      <c r="M17">
+        <v>0.9913030342092278</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>16</v>
+      </c>
+      <c r="C18">
+        <v>1.055120349330215</v>
+      </c>
+      <c r="D18">
+        <v>1.062051379275293</v>
+      </c>
+      <c r="E18">
+        <v>0.9434096811110427</v>
+      </c>
+      <c r="F18">
+        <v>1.055120349330215</v>
+      </c>
+      <c r="G18">
+        <v>1.012425431463024</v>
+      </c>
+      <c r="H18">
+        <v>0.938203255348837</v>
+      </c>
+      <c r="I18">
+        <v>0.9687507810392281</v>
+      </c>
+      <c r="J18">
+        <v>1.062051379275293</v>
+      </c>
+      <c r="K18">
+        <v>1.002730530193168</v>
+      </c>
+      <c r="L18">
+        <v>1.028925439761692</v>
+      </c>
+      <c r="M18">
+        <v>0.9966601462612732</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>17</v>
+      </c>
+      <c r="C19">
+        <v>0.9675179852060344</v>
+      </c>
+      <c r="D19">
+        <v>1.15609030302424</v>
+      </c>
+      <c r="E19">
+        <v>0.9443480477397658</v>
+      </c>
+      <c r="F19">
+        <v>0.9675179852060344</v>
+      </c>
+      <c r="G19">
+        <v>1.094496109764759</v>
+      </c>
+      <c r="H19">
+        <v>0.8285166405324971</v>
+      </c>
+      <c r="I19">
+        <v>0.9431054365710803</v>
+      </c>
+      <c r="J19">
+        <v>1.15609030302424</v>
+      </c>
+      <c r="K19">
+        <v>1.050219175382003</v>
+      </c>
+      <c r="L19">
+        <v>1.008868580294019</v>
+      </c>
+      <c r="M19">
+        <v>0.9890124204730627</v>
       </c>
     </row>
   </sheetData>
